--- a/target/test-classes/TestData/LMS_InputData.xlsx
+++ b/target/test-classes/TestData/LMS_InputData.xlsx
@@ -1,88 +1,385 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@Ruchira\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70676031-143B-4A9A-A28C-2148C13008B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A193983-72EB-4167-9B02-7FC0F096BA98}"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LMS_GET" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>Status_code</t>
-  </si>
-  <si>
-    <t>Status_message</t>
-  </si>
-  <si>
-    <t>{
-        "programName": "Devops",
-        "programDescription": "New Devops",
-        "online": true
-    }</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>programId</t>
   </si>
   <si>
-    <t>user Sends a valid post requests &amp; gets a response of 200</t>
+    <t>StatusCode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -90,34 +387,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -133,7 +720,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -145,7 +732,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -159,12 +746,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -192,31 +779,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -244,23 +814,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,62 +955,58 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A82747A-05A4-4EF4-9C0C-A25CA7087B86}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="49.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
+    </row>
+    <row r="2" ht="130" customHeight="1" spans="1:2">
+      <c r="A2" s="1">
+        <v>7542</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2">
+      <c r="B2">
         <v>200</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>7545</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>40594096</v>
+      </c>
+      <c r="B4">
+        <v>404</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/target/test-classes/TestData/LMS_InputData.xlsx
+++ b/target/test-classes/TestData/LMS_InputData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7820" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LMS_GET" sheetId="1" r:id="rId1"/>
     <sheet name="LMS_DELETE" sheetId="2" r:id="rId2"/>
+    <sheet name="LMS_POST" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>programId</t>
   </si>
@@ -24,13 +25,49 @@
   </si>
   <si>
     <t>asd</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>Status_code</t>
+  </si>
+  <si>
+    <t>Post in LMS API with all the valid inputs</t>
+  </si>
+  <si>
+    <t>{"programName":"Devops","programDescription":"New Devops","online":true}</t>
+  </si>
+  <si>
+    <t>8090</t>
+  </si>
+  <si>
+    <t>Post in LMS API with programName as blank.</t>
+  </si>
+  <si>
+    <t>{"programName":"","programDescription":"Dev Ops ","online":true}</t>
+  </si>
+  <si>
+    <t>Post in LMS API with programName,program desc &amp; online as blank.</t>
+  </si>
+  <si>
+    <t>{"programName":"","programDescription":"","online":}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,16 +75,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -55,24 +422,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -334,22 +994,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="1" max="1" width="29.4571428571429" customWidth="1"/>
+    <col min="2" max="2" width="20.3619047619048" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -360,8 +1020,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.5" customHeight="1">
-      <c r="A2" s="1">
+    <row r="2" ht="29.5" customHeight="1" spans="1:2">
+      <c r="A2" s="3">
         <v>7542</v>
       </c>
       <c r="B2">
@@ -386,21 +1046,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.0857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -437,5 +1099,73 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="150" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" ht="120" spans="1:4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" ht="105" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/target/test-classes/TestData/LMS_InputData.xlsx
+++ b/target/test-classes/TestData/LMS_InputData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7969C292-0A6E-49A5-9538-2B53DA416A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{35DE760B-93F3-4953-A52F-1609919DBC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23304" windowHeight="13224" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23304" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LMS_GET" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="LMS_PUT" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P6"/>
+  <oleSize ref="A1:O11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>programId</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>PUT in LMS API with all the valid inputs</t>
+  </si>
+  <si>
+    <t>GET with a valid ID</t>
+  </si>
+  <si>
+    <t>GET with an in valid ID</t>
+  </si>
+  <si>
+    <t>PUT method with valid Inputs</t>
+  </si>
+  <si>
+    <t>Delete With Valid Input</t>
+  </si>
+  <si>
+    <t>Delete With non existing programId</t>
+  </si>
+  <si>
+    <t>Delete With non alphanumeric programId</t>
   </si>
 </sst>
 </file>
@@ -406,47 +424,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.55" customHeight="1">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3" ht="29.55" customHeight="1">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
         <v>7462</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
         <v>7461</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
         <v>40594096</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>404</v>
       </c>
     </row>
@@ -458,47 +488,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>7638</v>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>19</v>
       </c>
       <c r="B2">
+        <v>9403</v>
+      </c>
+      <c r="C2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
         <v>7626</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>400</v>
       </c>
     </row>
@@ -574,46 +616,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972D570C-A1F4-42B2-B390-C05FFEADE232}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>9820</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="1">
+      <c r="E2" s="6"/>
+      <c r="F2" s="1">
         <v>200</v>
       </c>
     </row>
